--- a/tareas/Facebook_Friend_Stalker_Scenario.xlsx
+++ b/tareas/Facebook_Friend_Stalker_Scenario.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -85,24 +85,24 @@
     <t>Check the Information from the friend</t>
   </si>
   <si>
-    <t>The friend's Information is displayed</t>
-  </si>
-  <si>
     <t>Check the Friends from the friend</t>
-  </si>
-  <si>
-    <t>The friend's Friends are displayed</t>
   </si>
   <si>
     <t>Check the Photos from the friend</t>
   </si>
   <si>
-    <t>The friend's Photos are displayed</t>
-  </si>
-  <si>
     <t>1. User with account created
 2. Friend with account created
 3. User logged out from the account</t>
+  </si>
+  <si>
+    <t>Verify the friend's Information is displayed</t>
+  </si>
+  <si>
+    <t>Verify the friend's Friends are displayed</t>
+  </si>
+  <si>
+    <t>Verify the friend's Photos are displayed</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -657,7 +657,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="2"/>
@@ -669,10 +669,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -684,10 +684,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
